--- a/jpcore-r4/features/swg2-diagnosticreport-radiology-MustSupport記述/ValueSet-jp-medication-usage-injection-vs.xlsx
+++ b/jpcore-r4/features/swg2-diagnosticreport-radiology-MustSupport記述/ValueSet-jp-medication-usage-injection-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T01:47:46+00:00</t>
+    <t>2022-09-14T03:59:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
